--- a/downloaded_files/CMPS454_Tutorial-35560.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود على عباس حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210303</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4315089931</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45913.5370825232</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45913.5370825232</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35560.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,15 +177,6 @@
     <x:t>Omar Ahmed Maher Kaddah</x:t>
   </x:si>
   <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230161</x:t>
   </x:si>
   <x:si>
@@ -247,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amar Ali Awaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ماهر محمد رفعت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -434,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1177,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.7110228356</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1337,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3329945255</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45913.9890988773</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.9890988773</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4190332523</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45913.5370825232</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1770,70 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.7018601852</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45913.5370825232</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35560.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35560.xlsx
@@ -222,15 +222,6 @@
     <x:t>Mohamed Tarek Ahmed Afifi</x:t>
   </x:si>
   <x:si>
-    <x:t>1220083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عماد عبدالمنعم المظلوم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210356</x:t>
   </x:si>
   <x:si>
@@ -274,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Abdallah Mahmoud el said</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1210420</x:t>
@@ -1479,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.9890988773</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45928.0073984606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/CMPS454_Tutorial-35560.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Omar Ahmed Maher Kaddah</x:t>
   </x:si>
   <x:si>
+    <x:t>1220071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو ايمن فاروق محمد امام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Ayman Farouck Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230161</x:t>
   </x:si>
   <x:si>
@@ -211,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ashraf Mohamed Mamdouh Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد توفيق اسماعيل توفيق اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Tawfik Ismail Tawfik</x:t>
   </x:si>
   <x:si>
     <x:t>1210026</x:t>
@@ -416,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1319,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45928.9581496875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45928.9587434028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45928.0073984606</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45928.0073984606</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.5370825232</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1770,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45914.7018601852</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45913.5370825232</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35560.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35560.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210200</x:t>
@@ -255,7 +255,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210303</x:t>
